--- a/appendix_biomarkers.xlsx
+++ b/appendix_biomarkers.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joe/ukb-epi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1296638-53EA-CC46-A7FA-CC3FA76A50DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B77C42C-4808-B94A-8D2F-A58C49B80349}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7680" yWindow="740" windowWidth="27640" windowHeight="16940" xr2:uid="{9DFAA47D-FE35-1046-8883-A4BFF167BEB1}"/>
+    <workbookView xWindow="5960" yWindow="740" windowWidth="27640" windowHeight="16940" activeTab="1" xr2:uid="{9DFAA47D-FE35-1046-8883-A4BFF167BEB1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="32">
   <si>
     <t>Appendectomy</t>
   </si>
@@ -93,16 +94,58 @@
   </si>
   <si>
     <t>group</t>
+  </si>
+  <si>
+    <t>CRP</t>
+  </si>
+  <si>
+    <t>Glucose</t>
+  </si>
+  <si>
+    <t>Hba1c</t>
+  </si>
+  <si>
+    <t>HDL</t>
+  </si>
+  <si>
+    <t>LDL</t>
+  </si>
+  <si>
+    <t>IGF-1</t>
+  </si>
+  <si>
+    <t>Estradiol</t>
+  </si>
+  <si>
+    <t>SHBG</t>
+  </si>
+  <si>
+    <t>TG</t>
+  </si>
+  <si>
+    <t>Both sexes</t>
+  </si>
+  <si>
+    <t>Append</t>
+  </si>
+  <si>
+    <t>No appendectomy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -446,7 +489,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECDF121A-37FC-6D4F-B1F4-2B693799465B}">
   <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="F55" sqref="A1:F55"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1342,4 +1387,1121 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1996F7A5-9174-0C41-BA71-E24F1F65CCD3}">
+  <dimension ref="A1:F55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2">
+        <v>0.99832781929564629</v>
+      </c>
+      <c r="E2">
+        <v>0.99539693131590934</v>
+      </c>
+      <c r="F2">
+        <v>1.0012594332818188</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>1.01275647119292</v>
+      </c>
+      <c r="E3">
+        <v>1.0045518724663882</v>
+      </c>
+      <c r="F3">
+        <v>1.0209610699194516</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4">
+        <v>0.99621878778854966</v>
+      </c>
+      <c r="E4">
+        <v>0.99224580970721188</v>
+      </c>
+      <c r="F4">
+        <v>1.0001917658698873</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>1.0273318682256263</v>
+      </c>
+      <c r="E5">
+        <v>1.0163643892331176</v>
+      </c>
+      <c r="F5">
+        <v>1.0382986419140199</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6">
+        <v>1.0006464429194719</v>
+      </c>
+      <c r="E6">
+        <v>0.99632738233885199</v>
+      </c>
+      <c r="F6">
+        <v>1.004965503500092</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0.9947317627745581</v>
+      </c>
+      <c r="E7">
+        <v>0.98243835877144436</v>
+      </c>
+      <c r="F7">
+        <v>1.007025917657467</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8">
+        <v>1.0002511556743272</v>
+      </c>
+      <c r="E8">
+        <v>0.99968575688608363</v>
+      </c>
+      <c r="F8">
+        <v>1.0008163554485656</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0.99809762512607547</v>
+      </c>
+      <c r="E9">
+        <v>0.99653974349482932</v>
+      </c>
+      <c r="F9">
+        <v>0.99965550675732162</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10">
+        <v>1.0002421213178665</v>
+      </c>
+      <c r="E10">
+        <v>0.99954243407367671</v>
+      </c>
+      <c r="F10">
+        <v>1.000942009102969</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0.99827461442398646</v>
+      </c>
+      <c r="E11">
+        <v>0.99640457041364816</v>
+      </c>
+      <c r="F11">
+        <v>1.000144658434325</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12">
+        <v>1.000252410545529</v>
+      </c>
+      <c r="E12">
+        <v>0.99934551688895268</v>
+      </c>
+      <c r="F12">
+        <v>1.0011593042021059</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0.99793575790050448</v>
+      </c>
+      <c r="E13">
+        <v>0.99534212490006679</v>
+      </c>
+      <c r="F13">
+        <v>1.0005293909009421</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14">
+        <v>1.0002768696988298</v>
+      </c>
+      <c r="E14">
+        <v>0.99982618423572445</v>
+      </c>
+      <c r="F14">
+        <v>1.0007278359628466</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0.99790297879223033</v>
+      </c>
+      <c r="E15">
+        <v>0.99666183876299341</v>
+      </c>
+      <c r="F15">
+        <v>0.99914439962237889</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16">
+        <v>1.0003394103498935</v>
+      </c>
+      <c r="E16">
+        <v>0.99978341752255295</v>
+      </c>
+      <c r="F16">
+        <v>1.0008951203731515</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0.99758829222966416</v>
+      </c>
+      <c r="E17">
+        <v>0.99610413640164575</v>
+      </c>
+      <c r="F17">
+        <v>0.99907273086176573</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18">
+        <v>1.0002064098472863</v>
+      </c>
+      <c r="E18">
+        <v>0.99948094251229169</v>
+      </c>
+      <c r="F18">
+        <v>1.0009321556726203</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0.99831685289222416</v>
+      </c>
+      <c r="E19">
+        <v>0.9962426568419217</v>
+      </c>
+      <c r="F19">
+        <v>1.0003910489425265</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20">
+        <v>1.000443160707942</v>
+      </c>
+      <c r="E20">
+        <v>0.99975626161063191</v>
+      </c>
+      <c r="F20">
+        <v>1.0011300598052524</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0.99664198547433569</v>
+      </c>
+      <c r="E21">
+        <v>0.99475211948756326</v>
+      </c>
+      <c r="F21">
+        <v>0.99853113668577265</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22">
+        <v>1.0002923984795695</v>
+      </c>
+      <c r="E22">
+        <v>0.99935563502988722</v>
+      </c>
+      <c r="F22">
+        <v>1.001228516775361</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0.9979221030841614</v>
+      </c>
+      <c r="E23">
+        <v>0.99542019629499612</v>
+      </c>
+      <c r="F23">
+        <v>1.0004240098733266</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24">
+        <v>1.0007252735116823</v>
+      </c>
+      <c r="E24">
+        <v>0.99971891682045588</v>
+      </c>
+      <c r="F24">
+        <v>1.0017324340021829</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0.99407222691960551</v>
+      </c>
+      <c r="E25">
+        <v>0.99120507490873933</v>
+      </c>
+      <c r="F25">
+        <v>0.99693857513119732</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26">
+        <v>0.99966557492687902</v>
+      </c>
+      <c r="E26">
+        <v>0.99887548481483923</v>
+      </c>
+      <c r="F26">
+        <v>1.0004556650389187</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" t="s">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>1.0025358876099717</v>
+      </c>
+      <c r="E27">
+        <v>1.0003495075569044</v>
+      </c>
+      <c r="F27">
+        <v>1.0047219776152736</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28">
+        <v>0.99991965127310534</v>
+      </c>
+      <c r="E28">
+        <v>0.99889026062248432</v>
+      </c>
+      <c r="F28">
+        <v>1.0009487575616682</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" t="s">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>1.0005688498519363</v>
+      </c>
+      <c r="E29">
+        <v>0.99781252842197221</v>
+      </c>
+      <c r="F29">
+        <v>1.0033251712819005</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" t="s">
+        <v>31</v>
+      </c>
+      <c r="D30">
+        <v>1.0000327754239997</v>
+      </c>
+      <c r="E30">
+        <v>0.9988526623152052</v>
+      </c>
+      <c r="F30">
+        <v>1.001212888532794</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" t="s">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0.99973151415502925</v>
+      </c>
+      <c r="E31">
+        <v>0.99635204537818478</v>
+      </c>
+      <c r="F31">
+        <v>1.0031109829318736</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" t="s">
+        <v>31</v>
+      </c>
+      <c r="D32">
+        <v>1.0011431756092866</v>
+      </c>
+      <c r="E32">
+        <v>1.0003207471133968</v>
+      </c>
+      <c r="F32">
+        <v>1.0019656041051761</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>29</v>
+      </c>
+      <c r="C33" t="s">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0.9913838520518865</v>
+      </c>
+      <c r="E33">
+        <v>0.98913717091370346</v>
+      </c>
+      <c r="F33">
+        <v>0.99363101697153766</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" t="s">
+        <v>31</v>
+      </c>
+      <c r="D34">
+        <v>1.0017038693848348</v>
+      </c>
+      <c r="E34">
+        <v>1.0005519997858145</v>
+      </c>
+      <c r="F34">
+        <v>1.0028562333484898</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" t="s">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0.98794965651619115</v>
+      </c>
+      <c r="E35">
+        <v>0.98490733655380047</v>
+      </c>
+      <c r="F35">
+        <v>0.99099197647858184</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" t="s">
+        <v>31</v>
+      </c>
+      <c r="D36">
+        <v>1.000349217331443</v>
+      </c>
+      <c r="E36">
+        <v>0.99918350654277333</v>
+      </c>
+      <c r="F36">
+        <v>1.0015149281201128</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" t="s">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0.99714929168209188</v>
+      </c>
+      <c r="E37">
+        <v>0.99382293523898779</v>
+      </c>
+      <c r="F37">
+        <v>1.0004761198818892</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>26</v>
+      </c>
+      <c r="B38" t="s">
+        <v>29</v>
+      </c>
+      <c r="C38" t="s">
+        <v>31</v>
+      </c>
+      <c r="D38">
+        <v>1.0015232155439948</v>
+      </c>
+      <c r="E38">
+        <v>0.99745267550847672</v>
+      </c>
+      <c r="F38">
+        <v>1.0055937555795129</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>26</v>
+      </c>
+      <c r="B39" t="s">
+        <v>29</v>
+      </c>
+      <c r="C39" t="s">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0.98648159834049109</v>
+      </c>
+      <c r="E39">
+        <v>0.97445152110299549</v>
+      </c>
+      <c r="F39">
+        <v>0.99851167557798648</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>26</v>
+      </c>
+      <c r="B40" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" t="s">
+        <v>31</v>
+      </c>
+      <c r="D40">
+        <v>1.0013735639419161</v>
+      </c>
+      <c r="E40">
+        <v>0.99616471188011357</v>
+      </c>
+      <c r="F40">
+        <v>1.0065826470461703</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>26</v>
+      </c>
+      <c r="B41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" t="s">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0.98746942923003833</v>
+      </c>
+      <c r="E41">
+        <v>0.9718350176012901</v>
+      </c>
+      <c r="F41">
+        <v>1.0031038408587867</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>26</v>
+      </c>
+      <c r="B42" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" t="s">
+        <v>31</v>
+      </c>
+      <c r="D42">
+        <v>1.0003251539456897</v>
+      </c>
+      <c r="E42">
+        <v>0.99696190517994443</v>
+      </c>
+      <c r="F42">
+        <v>1.0036884027114348</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>26</v>
+      </c>
+      <c r="B43" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" t="s">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0.99732497529804298</v>
+      </c>
+      <c r="E43">
+        <v>0.98768190686874824</v>
+      </c>
+      <c r="F43">
+        <v>1.0069680437273378</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>27</v>
+      </c>
+      <c r="B44" t="s">
+        <v>29</v>
+      </c>
+      <c r="C44" t="s">
+        <v>31</v>
+      </c>
+      <c r="D44">
+        <v>1.0004742407566656</v>
+      </c>
+      <c r="E44">
+        <v>0.99907867473111456</v>
+      </c>
+      <c r="F44">
+        <v>1.0018698067822169</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>27</v>
+      </c>
+      <c r="B45" t="s">
+        <v>29</v>
+      </c>
+      <c r="C45" t="s">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0.99640610286917874</v>
+      </c>
+      <c r="E45">
+        <v>0.99256625406101762</v>
+      </c>
+      <c r="F45">
+        <v>1.0002459516773397</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>27</v>
+      </c>
+      <c r="B46" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" t="s">
+        <v>31</v>
+      </c>
+      <c r="D46">
+        <v>0.99948186492886515</v>
+      </c>
+      <c r="E46">
+        <v>0.99746292881443555</v>
+      </c>
+      <c r="F46">
+        <v>1.001500619320872</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>27</v>
+      </c>
+      <c r="B47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47" t="s">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>1.0037052757511384</v>
+      </c>
+      <c r="E47">
+        <v>0.99827359254139059</v>
+      </c>
+      <c r="F47">
+        <v>1.0091369589608861</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>27</v>
+      </c>
+      <c r="B48" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" t="s">
+        <v>31</v>
+      </c>
+      <c r="D48">
+        <v>1.0004629281560553</v>
+      </c>
+      <c r="E48">
+        <v>0.99864779186503505</v>
+      </c>
+      <c r="F48">
+        <v>1.0022780644470757</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>27</v>
+      </c>
+      <c r="B49" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" t="s">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>0.99621180397508158</v>
+      </c>
+      <c r="E49">
+        <v>0.99103105652962986</v>
+      </c>
+      <c r="F49">
+        <v>1.0013922757315459</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>28</v>
+      </c>
+      <c r="B50" t="s">
+        <v>29</v>
+      </c>
+      <c r="C50" t="s">
+        <v>31</v>
+      </c>
+      <c r="D50">
+        <v>0.99750477959106376</v>
+      </c>
+      <c r="E50">
+        <v>0.99601926223044079</v>
+      </c>
+      <c r="F50">
+        <v>0.99899095688831963</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>28</v>
+      </c>
+      <c r="B51" t="s">
+        <v>29</v>
+      </c>
+      <c r="C51" t="s">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>1.019103185712108</v>
+      </c>
+      <c r="E51">
+        <v>1.0149152278398228</v>
+      </c>
+      <c r="F51">
+        <v>1.023291143584393</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>28</v>
+      </c>
+      <c r="B52" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52" t="s">
+        <v>31</v>
+      </c>
+      <c r="D52">
+        <v>0.99776911462797646</v>
+      </c>
+      <c r="E52">
+        <v>0.99587822007244786</v>
+      </c>
+      <c r="F52">
+        <v>0.99966000918350484</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>28</v>
+      </c>
+      <c r="B53" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53" t="s">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>1.016010858149321</v>
+      </c>
+      <c r="E53">
+        <v>1.0108594718960668</v>
+      </c>
+      <c r="F53">
+        <v>1.0211622444025754</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>28</v>
+      </c>
+      <c r="B54" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" t="s">
+        <v>31</v>
+      </c>
+      <c r="D54">
+        <v>0.99808638744508804</v>
+      </c>
+      <c r="E54">
+        <v>0.99578256101092755</v>
+      </c>
+      <c r="F54">
+        <v>1.0003902138792486</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>28</v>
+      </c>
+      <c r="B55" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" t="s">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>1.0157959584606457</v>
+      </c>
+      <c r="E55">
+        <v>1.0090794811928854</v>
+      </c>
+      <c r="F55">
+        <v>1.022511851889979</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>